--- a/data/xlsx/01172019.xlsx
+++ b/data/xlsx/01172019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D10A14-E8D1-8646-A2C2-055D9E2E1B8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492DA49-134F-E947-BA36-CE8B109CF629}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="440" windowWidth="14860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
   <si>
     <t>Category</t>
   </si>
@@ -548,13 +548,16 @@
   </si>
   <si>
     <t>HEARST/LECONTE</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -568,11 +571,6 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -600,12 +598,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -945,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:G44"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -958,11 +955,10 @@
     <col min="3" max="3" width="12"/>
     <col min="4" max="4" width="19"/>
     <col min="7" max="7" width="14"/>
-    <col min="8" max="9" width="21"/>
-    <col min="10" max="10" width="13"/>
+    <col min="8" max="8" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -987,10 +983,9 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
         <v>43482</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1011,10 +1006,12 @@
       <c r="G2">
         <v>-122.25670700000001</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5">
+      <c r="H2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
         <v>43482</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1035,10 +1032,12 @@
       <c r="G3">
         <v>-122.25978600000001</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="H3" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
         <v>43482</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1059,10 +1058,12 @@
       <c r="G4">
         <v>-122.30269699999999</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
+      <c r="H4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
         <v>43482</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1083,10 +1084,12 @@
       <c r="G5">
         <v>-122.262722</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
+      <c r="H5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
         <v>43482</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1107,10 +1110,12 @@
       <c r="G6">
         <v>-122.27072800000001</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
+      <c r="H6" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
         <v>43482</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1131,10 +1136,12 @@
       <c r="G7">
         <v>-122.26038800000001</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
+      <c r="H7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
         <v>43482</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1155,10 +1162,12 @@
       <c r="G8">
         <v>-122.27126800000001</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
+      <c r="H8" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
         <v>43482</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1179,10 +1188,12 @@
       <c r="G9">
         <v>-122.256604</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
+      <c r="H9" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
         <v>43482</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1203,10 +1214,12 @@
       <c r="G10">
         <v>-122.25559800000001</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5">
+      <c r="H10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
         <v>43482</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1227,10 +1240,12 @@
       <c r="G11">
         <v>-122.25861399999999</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
+      <c r="H11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
         <v>43482</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1251,10 +1266,12 @@
       <c r="G12">
         <v>-122.254452</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
+      <c r="H12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
         <v>43482</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1275,10 +1292,12 @@
       <c r="G13">
         <v>-122.257606</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
+      <c r="H13" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
         <v>43482</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1299,14 +1318,12 @@
       <c r="G14">
         <v>-122.253767</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
         <v>43482</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1327,14 +1344,12 @@
       <c r="G15">
         <v>-122.258157</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
         <v>43482</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1355,14 +1370,12 @@
       <c r="G16">
         <v>-122.302232</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
         <v>43482</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1383,11 +1396,12 @@
       <c r="G17">
         <v>-122.302924</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5">
+      <c r="H17" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
         <v>43482</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1408,10 +1422,12 @@
       <c r="G18">
         <v>-122.263986</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5">
+      <c r="H18" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
         <v>43482</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1432,14 +1448,12 @@
       <c r="G19">
         <v>-122.254963</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
         <v>43482</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1460,10 +1474,12 @@
       <c r="G20">
         <v>-122.301117</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5">
+      <c r="H20" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
         <v>43482</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1484,10 +1500,12 @@
       <c r="G21">
         <v>-122.266457</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5">
+      <c r="H21" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
         <v>43482</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1508,10 +1526,12 @@
       <c r="G22">
         <v>-122.261313</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5">
+      <c r="H22" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
         <v>43482</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1532,10 +1552,12 @@
       <c r="G23">
         <v>-122.260222</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5">
+      <c r="H23" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
         <v>43482</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1556,10 +1578,12 @@
       <c r="G24">
         <v>-122.256304</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5">
+      <c r="H24" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
         <v>43482</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1580,10 +1604,12 @@
       <c r="G25">
         <v>-122.264484</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5">
+      <c r="H25" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
         <v>43482</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1604,10 +1630,12 @@
       <c r="G26">
         <v>-122.25522100000001</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="5">
+      <c r="H26" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
         <v>43482</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1628,10 +1656,12 @@
       <c r="G27">
         <v>-122.254698</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5">
+      <c r="H27" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
         <v>43482</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1652,14 +1682,12 @@
       <c r="G28">
         <v>-122.304652</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
         <v>43482</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1680,10 +1708,12 @@
       <c r="G29">
         <v>-122.260882</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5">
+      <c r="H29" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
         <v>43482</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1704,10 +1734,12 @@
       <c r="G30">
         <v>-122.256339</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5">
+      <c r="H30" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
         <v>43482</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1728,10 +1760,12 @@
       <c r="G31">
         <v>-122.25861500000001</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="5">
+      <c r="H31" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
         <v>43482</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1752,10 +1786,12 @@
       <c r="G32">
         <v>-122.261161</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="5">
+      <c r="H32" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
         <v>43482</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1776,10 +1812,12 @@
       <c r="G33">
         <v>-122.27072800000001</v>
       </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="5">
+      <c r="H33" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
         <v>43482</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1800,10 +1838,12 @@
       <c r="G34">
         <v>-122.262722</v>
       </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="5">
+      <c r="H34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4">
         <v>43482</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1824,10 +1864,12 @@
       <c r="G35">
         <v>37.866334000000002</v>
       </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5">
+      <c r="H35" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
         <v>43482</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1848,10 +1890,12 @@
       <c r="G36">
         <v>-122.26409099999999</v>
       </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5">
+      <c r="H36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
         <v>43482</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1872,10 +1916,12 @@
       <c r="G37">
         <v>-122.259063</v>
       </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="5">
+      <c r="H37" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
         <v>43482</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1896,10 +1942,12 @@
       <c r="G38">
         <v>-122.265899</v>
       </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5">
+      <c r="H38" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
         <v>43482</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1920,10 +1968,12 @@
       <c r="G39">
         <v>-122.263868</v>
       </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5">
+      <c r="H39" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
         <v>43482</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1944,10 +1994,12 @@
       <c r="G40">
         <v>-122.261205</v>
       </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="5">
+      <c r="H40" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
         <v>43482</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1968,13 +2020,12 @@
       <c r="G41">
         <v>-122.248801</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5">
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
         <v>43482</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1995,10 +2046,12 @@
       <c r="G42">
         <v>-122.257058</v>
       </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5">
+      <c r="H42" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
         <v>43482</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2019,10 +2072,12 @@
       <c r="G43">
         <v>-122.257058</v>
       </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="5">
+      <c r="H43" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
         <v>43482</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2043,13 +2098,9 @@
       <c r="G44">
         <v>-122.266867</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/01172019.xlsx
+++ b/data/xlsx/01172019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492DA49-134F-E947-BA36-CE8B109CF629}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD4414-B691-1F47-AB3E-4EF0C1C0613A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,6 +557,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -603,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
